--- a/Data_access/Sample_ID_Lookup_table_v1.xlsx
+++ b/Data_access/Sample_ID_Lookup_table_v1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="859">
   <si>
     <t xml:space="preserve">Data Center</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Cancer Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Metastasis</t>
-  </si>
-  <si>
     <t xml:space="preserve">WUSTL Biospecimen ID</t>
   </si>
   <si>
@@ -59,27 +56,30 @@
     <t xml:space="preserve">HTAN Participant ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary_metastasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Visium</t>
   </si>
   <si>
     <t xml:space="preserve">BRCA</t>
   </si>
   <si>
+    <t xml:space="preserve">HT206B1-S1Fc1U2Z1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT206B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA12_129_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA12_129</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">HT206B1-S1Fc1U2Z1B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT206B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA12_129_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA12_129</t>
-  </si>
-  <si>
     <t xml:space="preserve">HT206B1-S1Fc1U3Z1B1</t>
   </si>
   <si>
@@ -263,21 +263,21 @@
     <t xml:space="preserve">HTA12_27</t>
   </si>
   <si>
+    <t xml:space="preserve">HT268B1-Th1H3Fc2U12Z1Bs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT268B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA12_140_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA12_140</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metastasis</t>
   </si>
   <si>
-    <t xml:space="preserve">HT268B1-Th1H3Fc2U12Z1Bs1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT268B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA12_140_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA12_140</t>
-  </si>
-  <si>
     <t xml:space="preserve">HT268B1-Th1H3Fc2U22Z1Bs1</t>
   </si>
   <si>
@@ -1100,21 +1100,21 @@
     <t xml:space="preserve">HTA12_259</t>
   </si>
   <si>
+    <t xml:space="preserve">HT226C1-Th1Fc1U1Z1Bn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT226C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA12_260_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTA12_260</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primay</t>
   </si>
   <si>
-    <t xml:space="preserve">HT226C1-Th1Fc1U1Z1Bn1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT226C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA12_260_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTA12_260</t>
-  </si>
-  <si>
     <t xml:space="preserve">HT226C1-Th1Fc1U2Z1Bn1</t>
   </si>
   <si>
@@ -2043,6 +2043,9 @@
   </si>
   <si>
     <t xml:space="preserve">HTA12_22_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBMC</t>
   </si>
   <si>
     <t xml:space="preserve">HT224P1-S1H3A2Y2D1_1</t>
@@ -3015,16 +3018,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -3038,16 +3041,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -3061,19 +3064,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -3084,19 +3087,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -3107,19 +3110,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -3130,19 +3133,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -3153,19 +3156,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -3176,19 +3179,19 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -3199,19 +3202,19 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -3222,19 +3225,19 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -3245,19 +3248,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -3268,19 +3271,19 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -3291,19 +3294,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -3314,19 +3317,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -3337,19 +3340,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -3360,19 +3363,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -3383,19 +3386,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -3406,19 +3409,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -3429,19 +3432,19 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -3452,19 +3455,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -3475,19 +3478,19 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -3521,16 +3524,16 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
         <v>85</v>
@@ -3544,16 +3547,16 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
         <v>85</v>
@@ -3567,16 +3570,16 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>85</v>
@@ -3590,16 +3593,16 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
         <v>85</v>
@@ -3613,19 +3616,19 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -3636,19 +3639,19 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -3659,19 +3662,19 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -3682,19 +3685,19 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -3705,19 +3708,19 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -3728,19 +3731,19 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -3751,19 +3754,19 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -3774,19 +3777,19 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -3797,19 +3800,19 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -3820,19 +3823,19 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -3843,19 +3846,19 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -3866,19 +3869,19 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -3889,19 +3892,19 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -3912,19 +3915,19 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -3935,19 +3938,19 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -3958,19 +3961,19 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -3981,19 +3984,19 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -4004,19 +4007,19 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -4027,19 +4030,19 @@
         <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -4050,19 +4053,19 @@
         <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G48" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -4073,19 +4076,19 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -4096,19 +4099,19 @@
         <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -4119,19 +4122,19 @@
         <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -4142,19 +4145,19 @@
         <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G52" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -4165,19 +4168,19 @@
         <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -4188,19 +4191,19 @@
         <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -4211,19 +4214,19 @@
         <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -4234,19 +4237,19 @@
         <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -4257,19 +4260,19 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G57" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -4280,19 +4283,19 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -4303,19 +4306,19 @@
         <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G59" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -4326,19 +4329,19 @@
         <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61">
@@ -4349,19 +4352,19 @@
         <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G61" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -4372,19 +4375,19 @@
         <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G62" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -4395,19 +4398,19 @@
         <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -4418,19 +4421,19 @@
         <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G64" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -4441,19 +4444,19 @@
         <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -4461,22 +4464,22 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -4484,22 +4487,22 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -4510,19 +4513,19 @@
         <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -4533,19 +4536,19 @@
         <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -4556,19 +4559,19 @@
         <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -4576,22 +4579,22 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -4599,22 +4602,22 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F72" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -4622,22 +4625,22 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="F73" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
@@ -4645,22 +4648,22 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="F74" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
@@ -4671,19 +4674,19 @@
         <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -4694,19 +4697,19 @@
         <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
@@ -4717,19 +4720,19 @@
         <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F77" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
@@ -4740,19 +4743,19 @@
         <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F78" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
@@ -4760,22 +4763,22 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G79" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -4783,22 +4786,22 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F80" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G80" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4806,22 +4809,22 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F81" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -4829,22 +4832,22 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F82" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -4852,22 +4855,22 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="F83" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
@@ -4875,22 +4878,22 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="F84" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
@@ -4901,19 +4904,19 @@
         <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F85" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G85" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
@@ -4921,22 +4924,22 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F86" t="s">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s">
-        <v>289</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -4944,22 +4947,22 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G87" t="s">
-        <v>293</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -4970,19 +4973,19 @@
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -4990,22 +4993,22 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E89" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G89" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -5013,22 +5016,22 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="D90" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E90" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G90" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -5036,22 +5039,22 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E91" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F91" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G91" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -5059,22 +5062,22 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -5082,22 +5085,22 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F93" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="G93" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -5108,19 +5111,19 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="D94" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E94" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="F94" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -5131,19 +5134,19 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -5154,19 +5157,19 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="D96" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G96" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -5177,19 +5180,19 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E97" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F97" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G97" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -5200,19 +5203,19 @@
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G98" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -5223,19 +5226,19 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E99" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F99" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G99" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
@@ -5246,19 +5249,19 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E100" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G100" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
@@ -5269,19 +5272,19 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="D101" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E101" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="F101" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G101" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -5292,19 +5295,19 @@
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="D102" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E102" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G102" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -5315,19 +5318,19 @@
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E103" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G103" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -5338,19 +5341,19 @@
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="D104" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E104" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F104" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G104" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -5358,22 +5361,22 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="D105" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F105" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G105" t="s">
-        <v>335</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
@@ -5381,22 +5384,22 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="D106" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E106" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F106" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G106" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
@@ -5407,19 +5410,19 @@
         <v>208</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="D107" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E107" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F107" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G107" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
@@ -5430,19 +5433,19 @@
         <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E108" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F108" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G108" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
@@ -5450,22 +5453,22 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="D109" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E109" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F109" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G109" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110">
@@ -5473,22 +5476,22 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="D110" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E110" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F110" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G110" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111">
@@ -5496,22 +5499,22 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D111" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E111" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F111" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G111" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
@@ -5519,22 +5522,22 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D112" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E112" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F112" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G112" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
@@ -5542,22 +5545,22 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="D113" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E113" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F113" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G113" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
@@ -5565,22 +5568,22 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E114" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F114" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G114" t="s">
-        <v>374</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
@@ -5591,19 +5594,19 @@
         <v>208</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E115" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F115" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G115" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
@@ -5614,19 +5617,19 @@
         <v>208</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="D116" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E116" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F116" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G116" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
@@ -5637,19 +5640,19 @@
         <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="D117" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E117" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F117" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G117" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118">
@@ -5660,19 +5663,19 @@
         <v>208</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="D118" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F118" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G118" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
@@ -5680,22 +5683,22 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F119" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G119" t="s">
-        <v>378</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
@@ -5703,22 +5706,22 @@
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="D120" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E120" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="F120" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G120" t="s">
-        <v>378</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -5726,22 +5729,22 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="D121" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E121" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F121" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G121" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -5752,19 +5755,19 @@
         <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E122" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F122" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="G122" t="s">
-        <v>396</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
@@ -5772,22 +5775,22 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="D123" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E123" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F123" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G123" t="s">
-        <v>400</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
@@ -5795,22 +5798,22 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>409</v>
       </c>
       <c r="D124" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E124" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F124" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="G124" t="s">
-        <v>404</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125">
@@ -5818,22 +5821,22 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>413</v>
       </c>
       <c r="D125" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E125" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F125" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G125" t="s">
-        <v>408</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126">
@@ -5844,19 +5847,19 @@
         <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E126" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F126" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G126" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -5867,19 +5870,19 @@
         <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="D127" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E127" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F127" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G127" t="s">
-        <v>412</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
@@ -5887,22 +5890,22 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="D128" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E128" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F128" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G128" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
@@ -5913,19 +5916,19 @@
         <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="D129" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E129" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F129" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G129" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130">
@@ -5933,22 +5936,22 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>429</v>
       </c>
       <c r="D130" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E130" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="F130" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G130" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
@@ -5956,22 +5959,22 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="D131" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="E131" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F131" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="G131" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
@@ -5982,111 +5985,19 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>437</v>
       </c>
       <c r="D132" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E132" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F132" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="G132" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>208</v>
-      </c>
-      <c r="C133" t="s">
-        <v>81</v>
-      </c>
-      <c r="D133" t="s">
-        <v>425</v>
-      </c>
-      <c r="E133" t="s">
-        <v>426</v>
-      </c>
-      <c r="F133" t="s">
-        <v>427</v>
-      </c>
-      <c r="G133" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>429</v>
-      </c>
-      <c r="E134" t="s">
-        <v>430</v>
-      </c>
-      <c r="F134" t="s">
-        <v>431</v>
-      </c>
-      <c r="G134" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>433</v>
-      </c>
-      <c r="E135" t="s">
-        <v>434</v>
-      </c>
-      <c r="F135" t="s">
-        <v>435</v>
-      </c>
-      <c r="G135" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>437</v>
-      </c>
-      <c r="E136" t="s">
-        <v>438</v>
-      </c>
-      <c r="F136" t="s">
-        <v>439</v>
-      </c>
-      <c r="G136" t="s">
-        <v>440</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6137,16 +6048,16 @@
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" t="s">
         <v>148</v>
       </c>
+      <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
       <c r="H2" t="s">
         <v>148</v>
       </c>
@@ -6159,16 +6070,16 @@
         <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" t="s">
         <v>148</v>
       </c>
+      <c r="E3"/>
       <c r="F3"/>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
       <c r="H3" t="s">
         <v>148</v>
       </c>
@@ -6181,16 +6092,16 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" t="s">
         <v>148</v>
       </c>
+      <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" t="s">
         <v>148</v>
       </c>
@@ -6203,16 +6114,16 @@
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5" t="s">
         <v>152</v>
       </c>
+      <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
         <v>152</v>
       </c>
@@ -6225,16 +6136,16 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E6" t="s">
         <v>152</v>
       </c>
+      <c r="E6"/>
       <c r="F6"/>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" t="s">
         <v>152</v>
       </c>
@@ -6247,16 +6158,16 @@
         <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E7" t="s">
         <v>152</v>
       </c>
+      <c r="E7"/>
       <c r="F7"/>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" t="s">
         <v>152</v>
       </c>
@@ -6269,16 +6180,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>449</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="F8" t="s">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -6293,19 +6204,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>451</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>452</v>
       </c>
       <c r="F9" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="H9"/>
     </row>
@@ -6317,19 +6228,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>454</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H10"/>
     </row>
@@ -6341,19 +6252,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>456</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="H11"/>
     </row>
@@ -6365,19 +6276,19 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>458</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>459</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H12"/>
     </row>
@@ -6389,19 +6300,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="D13" t="s">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H13"/>
     </row>
@@ -6413,19 +6324,19 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
       <c r="F14" t="s">
-        <v>463</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="H14"/>
     </row>
@@ -6437,19 +6348,19 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>465</v>
       </c>
       <c r="F15" t="s">
-        <v>465</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H15"/>
     </row>
@@ -6461,19 +6372,19 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>466</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H16"/>
     </row>
@@ -6485,19 +6396,19 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>468</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="F17" t="s">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H17"/>
     </row>
@@ -6509,19 +6420,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>470</v>
       </c>
       <c r="D18" t="s">
-        <v>470</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>471</v>
       </c>
       <c r="F18" t="s">
-        <v>471</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="H18"/>
     </row>
@@ -6533,19 +6444,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>472</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>473</v>
       </c>
       <c r="F19" t="s">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H19"/>
     </row>
@@ -6557,19 +6468,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>475</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H20"/>
     </row>
@@ -6581,19 +6492,19 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>477</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H21"/>
     </row>
@@ -6605,19 +6516,19 @@
         <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>479</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="H22"/>
     </row>
@@ -6629,19 +6540,19 @@
         <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>481</v>
       </c>
       <c r="F23" t="s">
-        <v>481</v>
+        <v>271</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="H23"/>
     </row>
@@ -6653,19 +6564,19 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>483</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H24"/>
     </row>
@@ -6677,19 +6588,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>484</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>485</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H25"/>
     </row>
@@ -6701,19 +6612,19 @@
         <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="D26" t="s">
-        <v>486</v>
+        <v>283</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>487</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>285</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="H26"/>
     </row>
@@ -6725,19 +6636,19 @@
         <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="H27"/>
     </row>
@@ -6749,19 +6660,19 @@
         <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="D28" t="s">
-        <v>490</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>491</v>
       </c>
       <c r="F28" t="s">
-        <v>491</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="H28"/>
     </row>
@@ -6773,19 +6684,19 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>492</v>
       </c>
       <c r="D29" t="s">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>493</v>
       </c>
       <c r="F29" t="s">
-        <v>493</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H29"/>
     </row>
@@ -6797,16 +6708,16 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="D30" t="s">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>85</v>
@@ -6821,19 +6732,19 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>496</v>
       </c>
       <c r="D31" t="s">
-        <v>496</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>497</v>
       </c>
       <c r="F31" t="s">
-        <v>497</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="H31"/>
     </row>
@@ -6845,19 +6756,19 @@
         <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>498</v>
       </c>
       <c r="D32" t="s">
-        <v>498</v>
+        <v>307</v>
       </c>
       <c r="E32" t="s">
-        <v>307</v>
+        <v>499</v>
       </c>
       <c r="F32" t="s">
-        <v>499</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="H32"/>
     </row>
@@ -6869,19 +6780,19 @@
         <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="D33" t="s">
-        <v>500</v>
+        <v>311</v>
       </c>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>501</v>
       </c>
       <c r="F33" t="s">
-        <v>501</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="H33"/>
     </row>
@@ -6893,19 +6804,19 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>502</v>
       </c>
       <c r="D34" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>503</v>
       </c>
       <c r="F34" t="s">
-        <v>503</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H34"/>
     </row>
@@ -6917,19 +6828,19 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>504</v>
       </c>
       <c r="D35" t="s">
-        <v>504</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>505</v>
       </c>
       <c r="F35" t="s">
-        <v>505</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H35"/>
     </row>
@@ -6941,19 +6852,19 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>506</v>
       </c>
       <c r="D36" t="s">
-        <v>506</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>507</v>
       </c>
       <c r="F36" t="s">
-        <v>507</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="H36"/>
     </row>
@@ -6965,19 +6876,19 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="D37" t="s">
-        <v>508</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>509</v>
       </c>
       <c r="F37" t="s">
-        <v>509</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="H37"/>
     </row>
@@ -6989,19 +6900,19 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="D38" t="s">
-        <v>510</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>511</v>
       </c>
       <c r="F38" t="s">
-        <v>511</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H38"/>
     </row>
@@ -7013,19 +6924,19 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>512</v>
       </c>
       <c r="D39" t="s">
-        <v>512</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>513</v>
       </c>
       <c r="F39" t="s">
-        <v>513</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="H39"/>
     </row>
@@ -7037,19 +6948,19 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="D40" t="s">
-        <v>514</v>
+        <v>319</v>
       </c>
       <c r="E40" t="s">
-        <v>319</v>
+        <v>515</v>
       </c>
       <c r="F40" t="s">
-        <v>515</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="H40"/>
     </row>
@@ -7061,19 +6972,19 @@
         <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="D41" t="s">
-        <v>516</v>
+        <v>347</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>517</v>
       </c>
       <c r="F41" t="s">
-        <v>517</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="H41"/>
     </row>
@@ -7085,19 +6996,19 @@
         <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="D42" t="s">
-        <v>518</v>
+        <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>357</v>
+        <v>519</v>
       </c>
       <c r="F42" t="s">
-        <v>519</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="H42"/>
     </row>
@@ -7109,19 +7020,19 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="D43" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="E43" t="s">
-        <v>368</v>
+        <v>521</v>
       </c>
       <c r="F43" t="s">
-        <v>521</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="H43"/>
     </row>
@@ -7133,19 +7044,19 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="D44" t="s">
-        <v>522</v>
+        <v>372</v>
       </c>
       <c r="E44" t="s">
-        <v>372</v>
+        <v>523</v>
       </c>
       <c r="F44" t="s">
-        <v>523</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="H44"/>
     </row>
@@ -7157,19 +7068,19 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="D45" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="E45" t="s">
-        <v>398</v>
+        <v>525</v>
       </c>
       <c r="F45" t="s">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="H45"/>
     </row>
@@ -7181,19 +7092,19 @@
         <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>526</v>
       </c>
       <c r="D46" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
       <c r="E46" t="s">
-        <v>416</v>
+        <v>527</v>
       </c>
       <c r="F46" t="s">
-        <v>527</v>
+        <v>418</v>
       </c>
       <c r="G46" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
       <c r="H46"/>
     </row>
@@ -7205,19 +7116,19 @@
         <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="D47" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
       <c r="E47" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
       <c r="F47" t="s">
-        <v>527</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="H47"/>
     </row>
@@ -7226,22 +7137,22 @@
         <v>457</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>530</v>
       </c>
       <c r="D48" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="E48" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="F48" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="G48" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
       <c r="H48"/>
     </row>
@@ -7253,69 +7164,21 @@
         <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="D49" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="E49" t="s">
-        <v>416</v>
+        <v>533</v>
       </c>
       <c r="F49" t="s">
-        <v>529</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="H49"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>457</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>530</v>
-      </c>
-      <c r="E50" t="s">
-        <v>422</v>
-      </c>
-      <c r="F50" t="s">
-        <v>531</v>
-      </c>
-      <c r="G50" t="s">
-        <v>424</v>
-      </c>
-      <c r="H50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>457</v>
-      </c>
-      <c r="B51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" t="s">
-        <v>532</v>
-      </c>
-      <c r="E51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F51" t="s">
-        <v>533</v>
-      </c>
-      <c r="G51" t="s">
-        <v>428</v>
-      </c>
-      <c r="H51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7362,19 +7225,19 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -7385,19 +7248,19 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>537</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -7408,19 +7271,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>540</v>
       </c>
       <c r="F4" t="s">
-        <v>540</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -7431,19 +7294,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="F5" t="s">
-        <v>542</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -7454,19 +7317,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>544</v>
       </c>
       <c r="F6" t="s">
-        <v>544</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -7477,19 +7340,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>545</v>
       </c>
       <c r="D7" t="s">
-        <v>545</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="F7" t="s">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -7500,19 +7363,19 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>547</v>
       </c>
       <c r="D8" t="s">
-        <v>547</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>548</v>
       </c>
       <c r="F8" t="s">
-        <v>548</v>
+        <v>303</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -7523,19 +7386,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>549</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>550</v>
       </c>
       <c r="F9" t="s">
-        <v>550</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -7546,19 +7409,19 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>551</v>
       </c>
       <c r="D10" t="s">
-        <v>551</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>552</v>
       </c>
       <c r="F10" t="s">
-        <v>552</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -7569,19 +7432,19 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>553</v>
       </c>
       <c r="D11" t="s">
-        <v>553</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -7592,16 +7455,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>555</v>
       </c>
       <c r="D12" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>556</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -7615,16 +7478,16 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>557</v>
       </c>
       <c r="D13" t="s">
-        <v>557</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>558</v>
       </c>
       <c r="F13" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -7638,16 +7501,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>559</v>
       </c>
       <c r="D14" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>560</v>
       </c>
       <c r="F14" t="s">
-        <v>560</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -7661,19 +7524,19 @@
         <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="D15" t="s">
-        <v>561</v>
+        <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>562</v>
       </c>
       <c r="F15" t="s">
-        <v>562</v>
+        <v>259</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -7684,19 +7547,19 @@
         <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="D16" t="s">
-        <v>563</v>
+        <v>269</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s">
-        <v>564</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -7707,19 +7570,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>565</v>
       </c>
       <c r="D17" t="s">
-        <v>565</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>566</v>
       </c>
       <c r="F17" t="s">
-        <v>566</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -7730,19 +7593,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>567</v>
       </c>
       <c r="D18" t="s">
-        <v>567</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>568</v>
       </c>
       <c r="F18" t="s">
-        <v>568</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -7753,19 +7616,19 @@
         <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="D19" t="s">
-        <v>569</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>291</v>
+        <v>570</v>
       </c>
       <c r="F19" t="s">
-        <v>570</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -7776,19 +7639,19 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>571</v>
       </c>
       <c r="D20" t="s">
-        <v>571</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>572</v>
       </c>
       <c r="F20" t="s">
-        <v>572</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -7799,19 +7662,19 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>573</v>
       </c>
       <c r="D21" t="s">
-        <v>573</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>574</v>
       </c>
       <c r="F21" t="s">
-        <v>574</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -7822,19 +7685,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>575</v>
       </c>
       <c r="D22" t="s">
-        <v>575</v>
+        <v>297</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>576</v>
       </c>
       <c r="F22" t="s">
-        <v>576</v>
+        <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -7845,19 +7708,19 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="D23" t="s">
-        <v>577</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>297</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
-        <v>578</v>
+        <v>299</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -7868,16 +7731,16 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="D24" t="s">
-        <v>579</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>580</v>
       </c>
       <c r="F24" t="s">
-        <v>580</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
         <v>85</v>
@@ -7891,19 +7754,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>581</v>
       </c>
       <c r="D25" t="s">
-        <v>581</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>582</v>
       </c>
       <c r="F25" t="s">
-        <v>582</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -7914,19 +7777,19 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>583</v>
       </c>
       <c r="D26" t="s">
-        <v>583</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>584</v>
       </c>
       <c r="F26" t="s">
-        <v>584</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -7937,19 +7800,19 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>585</v>
       </c>
       <c r="D27" t="s">
-        <v>585</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>586</v>
       </c>
       <c r="F27" t="s">
-        <v>586</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -7960,19 +7823,19 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>587</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>588</v>
       </c>
       <c r="F28" t="s">
-        <v>588</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -7983,19 +7846,19 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>589</v>
       </c>
       <c r="D29" t="s">
-        <v>589</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>590</v>
       </c>
       <c r="F29" t="s">
-        <v>590</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -8006,19 +7869,19 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>591</v>
       </c>
       <c r="D30" t="s">
-        <v>591</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>592</v>
       </c>
       <c r="F30" t="s">
-        <v>592</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -8029,19 +7892,19 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>593</v>
       </c>
       <c r="D31" t="s">
-        <v>593</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>594</v>
       </c>
       <c r="F31" t="s">
-        <v>594</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -8052,19 +7915,19 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>595</v>
       </c>
       <c r="D32" t="s">
-        <v>595</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>596</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -8075,19 +7938,19 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>597</v>
       </c>
       <c r="D33" t="s">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>598</v>
       </c>
       <c r="F33" t="s">
-        <v>598</v>
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -8098,19 +7961,19 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>599</v>
       </c>
       <c r="D34" t="s">
-        <v>599</v>
+        <v>333</v>
       </c>
       <c r="E34" t="s">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="F34" t="s">
-        <v>600</v>
+        <v>335</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -8121,19 +7984,19 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>601</v>
       </c>
       <c r="D35" t="s">
-        <v>601</v>
+        <v>343</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>602</v>
+        <v>345</v>
       </c>
       <c r="G35" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -8144,19 +8007,19 @@
         <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>603</v>
       </c>
       <c r="D36" t="s">
-        <v>603</v>
+        <v>347</v>
       </c>
       <c r="E36" t="s">
-        <v>347</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>604</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -8167,19 +8030,19 @@
         <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>605</v>
       </c>
       <c r="D37" t="s">
-        <v>605</v>
+        <v>347</v>
       </c>
       <c r="E37" t="s">
-        <v>347</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
-        <v>606</v>
+        <v>349</v>
       </c>
       <c r="G37" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -8190,19 +8053,19 @@
         <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>607</v>
       </c>
       <c r="D38" t="s">
-        <v>607</v>
+        <v>353</v>
       </c>
       <c r="E38" t="s">
-        <v>353</v>
+        <v>608</v>
       </c>
       <c r="F38" t="s">
-        <v>608</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -8213,19 +8076,19 @@
         <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>609</v>
       </c>
       <c r="D39" t="s">
-        <v>609</v>
+        <v>353</v>
       </c>
       <c r="E39" t="s">
-        <v>353</v>
+        <v>610</v>
       </c>
       <c r="F39" t="s">
-        <v>610</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -8236,19 +8099,19 @@
         <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>611</v>
       </c>
       <c r="D40" t="s">
-        <v>611</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>357</v>
+        <v>612</v>
       </c>
       <c r="F40" t="s">
-        <v>612</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -8259,19 +8122,19 @@
         <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>360</v>
+        <v>613</v>
       </c>
       <c r="D41" t="s">
-        <v>613</v>
+        <v>361</v>
       </c>
       <c r="E41" t="s">
-        <v>362</v>
+        <v>614</v>
       </c>
       <c r="F41" t="s">
-        <v>614</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -8282,19 +8145,19 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>615</v>
       </c>
       <c r="D42" t="s">
-        <v>615</v>
+        <v>390</v>
       </c>
       <c r="E42" t="s">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="F42" t="s">
-        <v>616</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -8305,19 +8168,19 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>617</v>
       </c>
       <c r="D43" t="s">
-        <v>617</v>
+        <v>398</v>
       </c>
       <c r="E43" t="s">
-        <v>398</v>
+        <v>618</v>
       </c>
       <c r="F43" t="s">
-        <v>618</v>
+        <v>400</v>
       </c>
       <c r="G43" t="s">
-        <v>400</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -8328,19 +8191,19 @@
         <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>619</v>
       </c>
       <c r="D44" t="s">
-        <v>619</v>
+        <v>416</v>
       </c>
       <c r="E44" t="s">
-        <v>416</v>
+        <v>620</v>
       </c>
       <c r="F44" t="s">
-        <v>620</v>
+        <v>418</v>
       </c>
       <c r="G44" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -8351,19 +8214,19 @@
         <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>621</v>
       </c>
       <c r="D45" t="s">
-        <v>619</v>
+        <v>416</v>
       </c>
       <c r="E45" t="s">
-        <v>416</v>
+        <v>622</v>
       </c>
       <c r="F45" t="s">
-        <v>620</v>
+        <v>418</v>
       </c>
       <c r="G45" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -8371,22 +8234,22 @@
         <v>534</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>623</v>
       </c>
       <c r="D46" t="s">
-        <v>621</v>
+        <v>422</v>
       </c>
       <c r="E46" t="s">
-        <v>416</v>
+        <v>624</v>
       </c>
       <c r="F46" t="s">
-        <v>622</v>
+        <v>424</v>
       </c>
       <c r="G46" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -8397,65 +8260,19 @@
         <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>625</v>
       </c>
       <c r="D47" t="s">
-        <v>621</v>
+        <v>426</v>
       </c>
       <c r="E47" t="s">
-        <v>416</v>
+        <v>626</v>
       </c>
       <c r="F47" t="s">
-        <v>622</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>534</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>623</v>
-      </c>
-      <c r="E48" t="s">
-        <v>422</v>
-      </c>
-      <c r="F48" t="s">
-        <v>624</v>
-      </c>
-      <c r="G48" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>534</v>
-      </c>
-      <c r="B49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" t="s">
-        <v>625</v>
-      </c>
-      <c r="E49" t="s">
-        <v>426</v>
-      </c>
-      <c r="F49" t="s">
-        <v>626</v>
-      </c>
-      <c r="G49" t="s">
-        <v>428</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -8503,19 +8320,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>628</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>629</v>
       </c>
       <c r="F2" t="s">
-        <v>629</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -8526,19 +8343,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>630</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>631</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -8549,19 +8366,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>632</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>633</v>
       </c>
       <c r="F4" t="s">
-        <v>633</v>
+        <v>321</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -8572,19 +8389,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>634</v>
       </c>
       <c r="D5" t="s">
-        <v>634</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>635</v>
       </c>
       <c r="F5" t="s">
-        <v>635</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -8595,19 +8412,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
-        <v>636</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>637</v>
       </c>
       <c r="F6" t="s">
-        <v>637</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -8618,19 +8435,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>638</v>
       </c>
       <c r="D7" t="s">
-        <v>638</v>
+        <v>319</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>639</v>
       </c>
       <c r="F7" t="s">
-        <v>639</v>
+        <v>321</v>
       </c>
       <c r="G7" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -8641,19 +8458,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>640</v>
       </c>
       <c r="D8" t="s">
-        <v>640</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>641</v>
       </c>
       <c r="F8" t="s">
-        <v>641</v>
+        <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -8664,19 +8481,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>642</v>
       </c>
       <c r="D9" t="s">
-        <v>642</v>
+        <v>343</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>643</v>
       </c>
       <c r="F9" t="s">
-        <v>643</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -8687,19 +8504,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>644</v>
       </c>
       <c r="D10" t="s">
-        <v>644</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>645</v>
       </c>
       <c r="F10" t="s">
-        <v>645</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -8710,19 +8527,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
       <c r="D11" t="s">
-        <v>646</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>647</v>
       </c>
       <c r="F11" t="s">
-        <v>647</v>
+        <v>345</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -8733,19 +8550,19 @@
         <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>648</v>
       </c>
       <c r="D12" t="s">
-        <v>648</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>649</v>
       </c>
       <c r="F12" t="s">
-        <v>649</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -8756,19 +8573,19 @@
         <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="D13" t="s">
-        <v>650</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>651</v>
       </c>
       <c r="F13" t="s">
-        <v>651</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -8779,19 +8596,19 @@
         <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>652</v>
       </c>
       <c r="D14" t="s">
-        <v>652</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>653</v>
       </c>
       <c r="F14" t="s">
-        <v>653</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -8802,19 +8619,19 @@
         <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>654</v>
       </c>
       <c r="D15" t="s">
-        <v>654</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>655</v>
       </c>
       <c r="F15" t="s">
-        <v>655</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -8825,19 +8642,19 @@
         <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>656</v>
       </c>
       <c r="D16" t="s">
-        <v>656</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>226</v>
+        <v>657</v>
       </c>
       <c r="F16" t="s">
-        <v>657</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -8848,19 +8665,19 @@
         <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>658</v>
       </c>
       <c r="D17" t="s">
-        <v>656</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>659</v>
       </c>
       <c r="F17" t="s">
-        <v>657</v>
+        <v>228</v>
       </c>
       <c r="G17" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -8868,22 +8685,22 @@
         <v>627</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>658</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>661</v>
       </c>
       <c r="F18" t="s">
-        <v>659</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -8891,22 +8708,22 @@
         <v>627</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>662</v>
       </c>
       <c r="D19" t="s">
-        <v>658</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>663</v>
       </c>
       <c r="F19" t="s">
-        <v>659</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -8914,22 +8731,22 @@
         <v>627</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>664</v>
       </c>
       <c r="D20" t="s">
-        <v>660</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>665</v>
       </c>
       <c r="F20" t="s">
-        <v>661</v>
+        <v>378</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -8937,22 +8754,22 @@
         <v>627</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>662</v>
+        <v>410</v>
       </c>
       <c r="E21" t="s">
-        <v>372</v>
+        <v>667</v>
       </c>
       <c r="F21" t="s">
-        <v>663</v>
+        <v>412</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -8963,19 +8780,19 @@
         <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>664</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>669</v>
       </c>
       <c r="F22" t="s">
-        <v>665</v>
+        <v>412</v>
       </c>
       <c r="G22" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -8983,68 +8800,22 @@
         <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>670</v>
       </c>
       <c r="D23" t="s">
-        <v>666</v>
+        <v>430</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
+        <v>671</v>
       </c>
       <c r="F23" t="s">
-        <v>667</v>
+        <v>432</v>
       </c>
       <c r="G23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>627</v>
-      </c>
-      <c r="B24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>668</v>
-      </c>
-      <c r="E24" t="s">
-        <v>410</v>
-      </c>
-      <c r="F24" t="s">
-        <v>669</v>
-      </c>
-      <c r="G24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>670</v>
-      </c>
-      <c r="E25" t="s">
-        <v>430</v>
-      </c>
-      <c r="F25" t="s">
-        <v>671</v>
-      </c>
-      <c r="G25" t="s">
-        <v>432</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -9092,19 +8863,19 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
-        <v>673</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>674</v>
       </c>
       <c r="F2" t="s">
-        <v>674</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3">
@@ -9115,19 +8886,19 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>676</v>
       </c>
       <c r="D3" t="s">
-        <v>675</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>677</v>
       </c>
       <c r="F3" t="s">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -9138,19 +8909,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>678</v>
       </c>
       <c r="D4" t="s">
-        <v>677</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>679</v>
       </c>
       <c r="F4" t="s">
-        <v>678</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5">
@@ -9161,19 +8932,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>679</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>681</v>
       </c>
       <c r="F5" t="s">
-        <v>680</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -9184,19 +8955,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>682</v>
       </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>683</v>
       </c>
       <c r="F6" t="s">
-        <v>682</v>
+        <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7">
@@ -9207,19 +8978,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>684</v>
       </c>
       <c r="D7" t="s">
-        <v>683</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>685</v>
       </c>
       <c r="F7" t="s">
-        <v>684</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -9230,19 +9001,19 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>686</v>
       </c>
       <c r="D8" t="s">
-        <v>685</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>687</v>
       </c>
       <c r="F8" t="s">
-        <v>686</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9">
@@ -9253,19 +9024,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>688</v>
       </c>
       <c r="D9" t="s">
-        <v>687</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>689</v>
       </c>
       <c r="F9" t="s">
-        <v>688</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -9276,19 +9047,19 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>690</v>
       </c>
       <c r="D10" t="s">
-        <v>689</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>691</v>
       </c>
       <c r="F10" t="s">
-        <v>690</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11">
@@ -9299,19 +9070,19 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>692</v>
       </c>
       <c r="D11" t="s">
-        <v>691</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>693</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -9322,19 +9093,19 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>694</v>
       </c>
       <c r="D12" t="s">
-        <v>693</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>695</v>
       </c>
       <c r="F12" t="s">
-        <v>694</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -9345,19 +9116,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>696</v>
       </c>
       <c r="D13" t="s">
-        <v>695</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>697</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14">
@@ -9368,19 +9139,19 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>698</v>
       </c>
       <c r="D14" t="s">
-        <v>697</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>699</v>
       </c>
       <c r="F14" t="s">
-        <v>698</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15">
@@ -9391,19 +9162,19 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="D15" t="s">
-        <v>699</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>701</v>
       </c>
       <c r="F15" t="s">
-        <v>700</v>
+        <v>303</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -9414,19 +9185,19 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>702</v>
       </c>
       <c r="D16" t="s">
-        <v>701</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>703</v>
       </c>
       <c r="F16" t="s">
-        <v>702</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17">
@@ -9437,19 +9208,19 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>704</v>
       </c>
       <c r="D17" t="s">
-        <v>703</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>705</v>
       </c>
       <c r="F17" t="s">
-        <v>704</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -9460,19 +9231,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>706</v>
       </c>
       <c r="D18" t="s">
-        <v>705</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>707</v>
       </c>
       <c r="F18" t="s">
-        <v>706</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19">
@@ -9483,19 +9254,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>708</v>
       </c>
       <c r="D19" t="s">
-        <v>707</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>709</v>
       </c>
       <c r="F19" t="s">
-        <v>708</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -9506,19 +9277,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>710</v>
       </c>
       <c r="D20" t="s">
-        <v>709</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>711</v>
       </c>
       <c r="F20" t="s">
-        <v>710</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21">
@@ -9529,19 +9300,19 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>712</v>
       </c>
       <c r="D21" t="s">
-        <v>711</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>713</v>
       </c>
       <c r="F21" t="s">
-        <v>712</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -9552,19 +9323,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>714</v>
       </c>
       <c r="D22" t="s">
-        <v>713</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>715</v>
       </c>
       <c r="F22" t="s">
-        <v>714</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23">
@@ -9575,16 +9346,16 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>716</v>
       </c>
       <c r="D23" t="s">
-        <v>715</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>717</v>
       </c>
       <c r="F23" t="s">
-        <v>716</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -9598,16 +9369,16 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>718</v>
       </c>
       <c r="D24" t="s">
-        <v>717</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>719</v>
       </c>
       <c r="F24" t="s">
-        <v>718</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
@@ -9621,19 +9392,19 @@
         <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>720</v>
       </c>
       <c r="D25" t="s">
-        <v>719</v>
+        <v>257</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>721</v>
       </c>
       <c r="F25" t="s">
-        <v>720</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26">
@@ -9644,19 +9415,19 @@
         <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>722</v>
       </c>
       <c r="D26" t="s">
-        <v>721</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>723</v>
       </c>
       <c r="F26" t="s">
-        <v>722</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -9667,19 +9438,19 @@
         <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>724</v>
       </c>
       <c r="D27" t="s">
-        <v>723</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>725</v>
       </c>
       <c r="F27" t="s">
-        <v>724</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>271</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28">
@@ -9690,19 +9461,19 @@
         <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>726</v>
       </c>
       <c r="D28" t="s">
-        <v>725</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>727</v>
       </c>
       <c r="F28" t="s">
-        <v>726</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -9713,19 +9484,19 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>728</v>
       </c>
       <c r="D29" t="s">
-        <v>727</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>729</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30">
@@ -9736,19 +9507,19 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>730</v>
       </c>
       <c r="D30" t="s">
-        <v>729</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>731</v>
       </c>
       <c r="F30" t="s">
-        <v>730</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -9759,19 +9530,19 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>732</v>
       </c>
       <c r="D31" t="s">
-        <v>731</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>733</v>
       </c>
       <c r="F31" t="s">
-        <v>732</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32">
@@ -9782,19 +9553,19 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>734</v>
       </c>
       <c r="D32" t="s">
-        <v>733</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>735</v>
       </c>
       <c r="F32" t="s">
-        <v>734</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -9805,19 +9576,19 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>736</v>
       </c>
       <c r="D33" t="s">
-        <v>735</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>737</v>
       </c>
       <c r="F33" t="s">
-        <v>736</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -9828,19 +9599,19 @@
         <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>738</v>
       </c>
       <c r="D34" t="s">
-        <v>737</v>
+        <v>283</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>739</v>
       </c>
       <c r="F34" t="s">
-        <v>738</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35">
@@ -9851,19 +9622,19 @@
         <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>740</v>
       </c>
       <c r="D35" t="s">
-        <v>739</v>
+        <v>287</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>741</v>
       </c>
       <c r="F35" t="s">
-        <v>740</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
-        <v>289</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36">
@@ -9874,19 +9645,19 @@
         <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>742</v>
       </c>
       <c r="D36" t="s">
-        <v>741</v>
+        <v>287</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>743</v>
       </c>
       <c r="F36" t="s">
-        <v>742</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -9897,19 +9668,19 @@
         <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>744</v>
       </c>
       <c r="D37" t="s">
-        <v>743</v>
+        <v>291</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>745</v>
       </c>
       <c r="F37" t="s">
-        <v>744</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>293</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38">
@@ -9920,19 +9691,19 @@
         <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>746</v>
       </c>
       <c r="D38" t="s">
-        <v>745</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>747</v>
       </c>
       <c r="F38" t="s">
-        <v>746</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -9943,19 +9714,19 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>748</v>
       </c>
       <c r="D39" t="s">
-        <v>747</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>749</v>
       </c>
       <c r="F39" t="s">
-        <v>748</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40">
@@ -9966,19 +9737,19 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>750</v>
       </c>
       <c r="D40" t="s">
-        <v>749</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>751</v>
       </c>
       <c r="F40" t="s">
-        <v>750</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -9989,19 +9760,19 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>752</v>
       </c>
       <c r="D41" t="s">
-        <v>751</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>753</v>
       </c>
       <c r="F41" t="s">
-        <v>752</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42">
@@ -10012,19 +9783,19 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>754</v>
       </c>
       <c r="D42" t="s">
-        <v>753</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>755</v>
       </c>
       <c r="F42" t="s">
-        <v>754</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -10035,19 +9806,19 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>756</v>
       </c>
       <c r="D43" t="s">
-        <v>755</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>757</v>
       </c>
       <c r="F43" t="s">
-        <v>756</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -10058,19 +9829,19 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>758</v>
       </c>
       <c r="D44" t="s">
-        <v>757</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>759</v>
       </c>
       <c r="F44" t="s">
-        <v>758</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45">
@@ -10081,16 +9852,16 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>760</v>
       </c>
       <c r="D45" t="s">
-        <v>759</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>761</v>
       </c>
       <c r="F45" t="s">
-        <v>760</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
         <v>85</v>
@@ -10104,19 +9875,19 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>762</v>
       </c>
       <c r="D46" t="s">
-        <v>761</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>763</v>
       </c>
       <c r="F46" t="s">
-        <v>762</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47">
@@ -10127,19 +9898,19 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>764</v>
       </c>
       <c r="D47" t="s">
-        <v>763</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>765</v>
       </c>
       <c r="F47" t="s">
-        <v>764</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -10150,19 +9921,19 @@
         <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>766</v>
       </c>
       <c r="D48" t="s">
-        <v>765</v>
+        <v>307</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>767</v>
       </c>
       <c r="F48" t="s">
-        <v>766</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49">
@@ -10173,19 +9944,19 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>768</v>
       </c>
       <c r="D49" t="s">
-        <v>767</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>769</v>
       </c>
       <c r="F49" t="s">
-        <v>768</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -10196,19 +9967,19 @@
         <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>770</v>
       </c>
       <c r="D50" t="s">
-        <v>769</v>
+        <v>311</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>771</v>
       </c>
       <c r="F50" t="s">
-        <v>770</v>
+        <v>313</v>
       </c>
       <c r="G50" t="s">
-        <v>313</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51">
@@ -10219,19 +9990,19 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>772</v>
       </c>
       <c r="D51" t="s">
-        <v>771</v>
+        <v>311</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>773</v>
       </c>
       <c r="F51" t="s">
-        <v>772</v>
+        <v>313</v>
       </c>
       <c r="G51" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -10242,19 +10013,19 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>774</v>
       </c>
       <c r="D52" t="s">
-        <v>773</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>775</v>
       </c>
       <c r="F52" t="s">
-        <v>774</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>675</v>
       </c>
     </row>
     <row r="53">
@@ -10265,19 +10036,19 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>776</v>
       </c>
       <c r="D53" t="s">
-        <v>775</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>777</v>
       </c>
       <c r="F53" t="s">
-        <v>776</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -10288,19 +10059,19 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>778</v>
       </c>
       <c r="D54" t="s">
-        <v>777</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>779</v>
       </c>
       <c r="F54" t="s">
-        <v>778</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55">
@@ -10311,19 +10082,19 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>780</v>
       </c>
       <c r="D55" t="s">
-        <v>779</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>781</v>
       </c>
       <c r="F55" t="s">
-        <v>780</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -10334,19 +10105,19 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>782</v>
       </c>
       <c r="D56" t="s">
-        <v>781</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>783</v>
       </c>
       <c r="F56" t="s">
-        <v>782</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57">
@@ -10357,19 +10128,19 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>784</v>
       </c>
       <c r="D57" t="s">
-        <v>783</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>785</v>
       </c>
       <c r="F57" t="s">
-        <v>784</v>
+        <v>127</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -10380,19 +10151,19 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>786</v>
       </c>
       <c r="D58" t="s">
-        <v>785</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>787</v>
       </c>
       <c r="F58" t="s">
-        <v>786</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -10403,19 +10174,19 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>788</v>
       </c>
       <c r="D59" t="s">
-        <v>787</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>789</v>
       </c>
       <c r="F59" t="s">
-        <v>788</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -10426,19 +10197,19 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>790</v>
       </c>
       <c r="D60" t="s">
-        <v>789</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>791</v>
       </c>
       <c r="F60" t="s">
-        <v>790</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61">
@@ -10449,19 +10220,19 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>792</v>
       </c>
       <c r="D61" t="s">
-        <v>791</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>793</v>
       </c>
       <c r="F61" t="s">
-        <v>792</v>
+        <v>135</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -10472,19 +10243,19 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>794</v>
       </c>
       <c r="D62" t="s">
-        <v>793</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F62" t="s">
-        <v>794</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63">
@@ -10495,19 +10266,19 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>794</v>
       </c>
       <c r="D63" t="s">
-        <v>793</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F63" t="s">
-        <v>794</v>
+        <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64">
@@ -10518,19 +10289,19 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>794</v>
       </c>
       <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
         <v>795</v>
       </c>
-      <c r="E64" t="s">
-        <v>139</v>
-      </c>
       <c r="F64" t="s">
-        <v>796</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>141</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65">
@@ -10541,19 +10312,19 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>794</v>
       </c>
       <c r="D65" t="s">
-        <v>797</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>795</v>
       </c>
       <c r="F65" t="s">
-        <v>798</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66">
@@ -10564,19 +10335,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>796</v>
       </c>
       <c r="D66" t="s">
-        <v>799</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>797</v>
       </c>
       <c r="F66" t="s">
-        <v>800</v>
+        <v>141</v>
       </c>
       <c r="G66" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -10587,19 +10358,19 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>798</v>
       </c>
       <c r="D67" t="s">
-        <v>801</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>799</v>
       </c>
       <c r="F67" t="s">
-        <v>802</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>145</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68">
@@ -10610,19 +10381,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="D68" t="s">
-        <v>803</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>801</v>
       </c>
       <c r="F68" t="s">
-        <v>804</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -10633,19 +10404,19 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>802</v>
       </c>
       <c r="D69" t="s">
-        <v>805</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>803</v>
       </c>
       <c r="F69" t="s">
-        <v>806</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -10656,19 +10427,19 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>804</v>
       </c>
       <c r="D70" t="s">
-        <v>807</v>
+        <v>319</v>
       </c>
       <c r="E70" t="s">
-        <v>319</v>
+        <v>805</v>
       </c>
       <c r="F70" t="s">
-        <v>808</v>
+        <v>321</v>
       </c>
       <c r="G70" t="s">
-        <v>321</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71">
@@ -10679,19 +10450,19 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>806</v>
       </c>
       <c r="D71" t="s">
-        <v>809</v>
+        <v>319</v>
       </c>
       <c r="E71" t="s">
-        <v>333</v>
+        <v>807</v>
       </c>
       <c r="F71" t="s">
-        <v>810</v>
+        <v>321</v>
       </c>
       <c r="G71" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -10702,19 +10473,19 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>808</v>
       </c>
       <c r="D72" t="s">
-        <v>811</v>
+        <v>319</v>
       </c>
       <c r="E72" t="s">
-        <v>343</v>
+        <v>809</v>
       </c>
       <c r="F72" t="s">
-        <v>812</v>
+        <v>321</v>
       </c>
       <c r="G72" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -10725,19 +10496,19 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>810</v>
       </c>
       <c r="D73" t="s">
-        <v>813</v>
+        <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>343</v>
+        <v>811</v>
       </c>
       <c r="F73" t="s">
-        <v>814</v>
+        <v>335</v>
       </c>
       <c r="G73" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -10745,22 +10516,22 @@
         <v>672</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>812</v>
       </c>
       <c r="D74" t="s">
-        <v>815</v>
+        <v>343</v>
       </c>
       <c r="E74" t="s">
-        <v>347</v>
+        <v>813</v>
       </c>
       <c r="F74" t="s">
-        <v>816</v>
+        <v>345</v>
       </c>
       <c r="G74" t="s">
-        <v>349</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75">
@@ -10768,22 +10539,22 @@
         <v>672</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>814</v>
       </c>
       <c r="D75" t="s">
-        <v>817</v>
+        <v>343</v>
       </c>
       <c r="E75" t="s">
-        <v>347</v>
+        <v>815</v>
       </c>
       <c r="F75" t="s">
-        <v>818</v>
+        <v>345</v>
       </c>
       <c r="G75" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -10794,19 +10565,19 @@
         <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>816</v>
       </c>
       <c r="D76" t="s">
-        <v>819</v>
+        <v>347</v>
       </c>
       <c r="E76" t="s">
-        <v>347</v>
+        <v>817</v>
       </c>
       <c r="F76" t="s">
-        <v>820</v>
+        <v>349</v>
       </c>
       <c r="G76" t="s">
-        <v>349</v>
+        <v>675</v>
       </c>
     </row>
     <row r="77">
@@ -10817,19 +10588,19 @@
         <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>818</v>
       </c>
       <c r="D77" t="s">
-        <v>821</v>
+        <v>347</v>
       </c>
       <c r="E77" t="s">
-        <v>353</v>
+        <v>819</v>
       </c>
       <c r="F77" t="s">
-        <v>822</v>
+        <v>349</v>
       </c>
       <c r="G77" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
@@ -10840,19 +10611,19 @@
         <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>820</v>
       </c>
       <c r="D78" t="s">
-        <v>823</v>
+        <v>347</v>
       </c>
       <c r="E78" t="s">
-        <v>353</v>
+        <v>821</v>
       </c>
       <c r="F78" t="s">
-        <v>824</v>
+        <v>349</v>
       </c>
       <c r="G78" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
@@ -10863,19 +10634,19 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>822</v>
       </c>
       <c r="D79" t="s">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="E79" t="s">
-        <v>353</v>
+        <v>823</v>
       </c>
       <c r="F79" t="s">
-        <v>826</v>
+        <v>355</v>
       </c>
       <c r="G79" t="s">
-        <v>355</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80">
@@ -10886,19 +10657,19 @@
         <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>824</v>
       </c>
       <c r="D80" t="s">
-        <v>827</v>
+        <v>353</v>
       </c>
       <c r="E80" t="s">
-        <v>357</v>
+        <v>825</v>
       </c>
       <c r="F80" t="s">
-        <v>828</v>
+        <v>355</v>
       </c>
       <c r="G80" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -10909,19 +10680,19 @@
         <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>826</v>
       </c>
       <c r="D81" t="s">
-        <v>829</v>
+        <v>353</v>
       </c>
       <c r="E81" t="s">
-        <v>357</v>
+        <v>827</v>
       </c>
       <c r="F81" t="s">
-        <v>830</v>
+        <v>355</v>
       </c>
       <c r="G81" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
@@ -10929,22 +10700,22 @@
         <v>672</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>360</v>
+        <v>828</v>
       </c>
       <c r="D82" t="s">
-        <v>831</v>
+        <v>357</v>
       </c>
       <c r="E82" t="s">
-        <v>362</v>
+        <v>829</v>
       </c>
       <c r="F82" t="s">
-        <v>832</v>
+        <v>359</v>
       </c>
       <c r="G82" t="s">
-        <v>364</v>
+        <v>675</v>
       </c>
     </row>
     <row r="83">
@@ -10952,22 +10723,22 @@
         <v>672</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>360</v>
+        <v>830</v>
       </c>
       <c r="D83" t="s">
-        <v>833</v>
+        <v>357</v>
       </c>
       <c r="E83" t="s">
-        <v>362</v>
+        <v>831</v>
       </c>
       <c r="F83" t="s">
-        <v>834</v>
+        <v>359</v>
       </c>
       <c r="G83" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
@@ -10975,22 +10746,22 @@
         <v>672</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="D84" t="s">
-        <v>835</v>
+        <v>361</v>
       </c>
       <c r="E84" t="s">
-        <v>390</v>
+        <v>833</v>
       </c>
       <c r="F84" t="s">
-        <v>836</v>
+        <v>363</v>
       </c>
       <c r="G84" t="s">
-        <v>392</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85">
@@ -10998,22 +10769,22 @@
         <v>672</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>834</v>
       </c>
       <c r="D85" t="s">
-        <v>837</v>
+        <v>361</v>
       </c>
       <c r="E85" t="s">
-        <v>390</v>
+        <v>835</v>
       </c>
       <c r="F85" t="s">
-        <v>838</v>
+        <v>363</v>
       </c>
       <c r="G85" t="s">
-        <v>392</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
@@ -11021,22 +10792,22 @@
         <v>672</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>836</v>
       </c>
       <c r="D86" t="s">
-        <v>839</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>398</v>
+        <v>837</v>
       </c>
       <c r="F86" t="s">
-        <v>840</v>
+        <v>392</v>
       </c>
       <c r="G86" t="s">
-        <v>400</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87">
@@ -11044,22 +10815,22 @@
         <v>672</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>838</v>
       </c>
       <c r="D87" t="s">
-        <v>841</v>
+        <v>390</v>
       </c>
       <c r="E87" t="s">
-        <v>398</v>
+        <v>839</v>
       </c>
       <c r="F87" t="s">
-        <v>842</v>
+        <v>392</v>
       </c>
       <c r="G87" t="s">
-        <v>400</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -11067,22 +10838,22 @@
         <v>672</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D88" t="s">
-        <v>843</v>
+        <v>398</v>
       </c>
       <c r="E88" t="s">
-        <v>406</v>
+        <v>841</v>
       </c>
       <c r="F88" t="s">
-        <v>844</v>
+        <v>400</v>
       </c>
       <c r="G88" t="s">
-        <v>408</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89">
@@ -11090,22 +10861,22 @@
         <v>672</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>842</v>
       </c>
       <c r="D89" t="s">
-        <v>845</v>
+        <v>398</v>
       </c>
       <c r="E89" t="s">
-        <v>416</v>
+        <v>843</v>
       </c>
       <c r="F89" t="s">
-        <v>846</v>
+        <v>400</v>
       </c>
       <c r="G89" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -11113,22 +10884,22 @@
         <v>672</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>81</v>
+        <v>844</v>
       </c>
       <c r="D90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E90" t="s">
         <v>845</v>
       </c>
-      <c r="E90" t="s">
-        <v>416</v>
-      </c>
       <c r="F90" t="s">
-        <v>846</v>
+        <v>408</v>
       </c>
       <c r="G90" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -11139,19 +10910,19 @@
         <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>846</v>
       </c>
       <c r="D91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E91" t="s">
         <v>847</v>
       </c>
-      <c r="E91" t="s">
-        <v>416</v>
-      </c>
       <c r="F91" t="s">
-        <v>848</v>
+        <v>418</v>
       </c>
       <c r="G91" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -11162,19 +10933,19 @@
         <v>208</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>848</v>
       </c>
       <c r="D92" t="s">
-        <v>847</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>416</v>
+        <v>849</v>
       </c>
       <c r="F92" t="s">
-        <v>848</v>
+        <v>418</v>
       </c>
       <c r="G92" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93">
@@ -11185,19 +10956,19 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="D93" t="s">
-        <v>849</v>
+        <v>422</v>
       </c>
       <c r="E93" t="s">
-        <v>422</v>
+        <v>851</v>
       </c>
       <c r="F93" t="s">
-        <v>850</v>
+        <v>424</v>
       </c>
       <c r="G93" t="s">
-        <v>424</v>
+        <v>675</v>
       </c>
     </row>
     <row r="94">
@@ -11208,19 +10979,19 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>852</v>
       </c>
       <c r="D94" t="s">
-        <v>851</v>
+        <v>422</v>
       </c>
       <c r="E94" t="s">
-        <v>422</v>
+        <v>853</v>
       </c>
       <c r="F94" t="s">
-        <v>852</v>
+        <v>424</v>
       </c>
       <c r="G94" t="s">
-        <v>424</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -11231,19 +11002,19 @@
         <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>854</v>
       </c>
       <c r="D95" t="s">
-        <v>853</v>
+        <v>426</v>
       </c>
       <c r="E95" t="s">
-        <v>426</v>
+        <v>855</v>
       </c>
       <c r="F95" t="s">
-        <v>854</v>
+        <v>428</v>
       </c>
       <c r="G95" t="s">
-        <v>428</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -11285,25 +11056,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>857</v>
       </c>
       <c r="D2" t="s">
-        <v>856</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>858</v>
       </c>
       <c r="F2" t="s">
-        <v>857</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
